--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43207C17-0EB3-8047-8C24-2D3BCC40E301}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188834F0-253A-8848-AD90-9D9356FF1110}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" activeTab="1" xr2:uid="{262774B7-AB6E-2E48-BB18-D4F78B06E237}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20040" windowHeight="19520" xr2:uid="{262774B7-AB6E-2E48-BB18-D4F78B06E237}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="7" r:id="rId1"/>
@@ -17089,8 +17089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92B7623-75A6-7B46-8147-ADF8D32CC273}">
   <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -20618,8 +20618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBA3398-C49F-494E-BD25-0CFADD0EB073}">
   <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -20645,7 +20645,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>162</v>
@@ -20653,10 +20653,10 @@
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>162</v>
@@ -20667,7 +20667,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>162</v>
@@ -20678,7 +20678,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>162</v>
@@ -20686,10 +20686,10 @@
     </row>
     <row r="6" spans="1:3" ht="17">
       <c r="A6" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>162</v>
@@ -20700,7 +20700,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>162</v>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>162</v>
@@ -20719,10 +20719,10 @@
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>162</v>
@@ -20733,7 +20733,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>162</v>
@@ -20744,7 +20744,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>162</v>
@@ -20754,110 +20754,110 @@
       <c r="A12" s="135">
         <v>1</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="55">
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="135">
         <v>1</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="55">
         <v>1</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="135">
         <v>0</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="55">
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="135">
         <v>0</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="55">
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17">
       <c r="A16" s="135">
         <v>1</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="55">
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17">
       <c r="A17" s="135">
         <v>1</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="55">
         <v>1</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17">
       <c r="A18" s="135">
         <v>0</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="55">
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="135">
         <v>1</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="55">
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17">
       <c r="A20" s="135">
-        <v>0</v>
-      </c>
-      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="B20" s="55">
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17">
       <c r="A21" s="135">
         <v>0</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="55">
         <v>1</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17">
@@ -20865,7 +20865,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>162</v>
@@ -20876,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>162</v>
@@ -20887,7 +20887,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>162</v>
@@ -20898,7 +20898,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>162</v>
@@ -20906,10 +20906,10 @@
     </row>
     <row r="26" spans="1:3" ht="17">
       <c r="A26" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>162</v>
@@ -20917,10 +20917,10 @@
     </row>
     <row r="27" spans="1:3" ht="17">
       <c r="A27" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>162</v>
@@ -20931,7 +20931,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>162</v>
@@ -20942,7 +20942,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>162</v>
@@ -20950,10 +20950,10 @@
     </row>
     <row r="30" spans="1:3" ht="17">
       <c r="A30" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>162</v>
@@ -20964,7 +20964,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>162</v>
@@ -20974,8 +20974,8 @@
       <c r="A32" s="135">
         <v>1</v>
       </c>
-      <c r="B32" s="17">
-        <v>3</v>
+      <c r="B32" s="55">
+        <v>1</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>163</v>
@@ -20985,8 +20985,8 @@
       <c r="A33" s="135">
         <v>0</v>
       </c>
-      <c r="B33" s="17">
-        <v>3</v>
+      <c r="B33" s="55">
+        <v>1</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>163</v>
@@ -20996,8 +20996,8 @@
       <c r="A34" s="135">
         <v>0</v>
       </c>
-      <c r="B34" s="29">
-        <v>3</v>
+      <c r="B34" s="55">
+        <v>1</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>163</v>
@@ -21005,10 +21005,10 @@
     </row>
     <row r="35" spans="1:3" ht="17">
       <c r="A35" s="135">
-        <v>0</v>
-      </c>
-      <c r="B35" s="29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B35" s="55">
+        <v>1</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>163</v>
@@ -21016,10 +21016,10 @@
     </row>
     <row r="36" spans="1:3" ht="17">
       <c r="A36" s="135">
-        <v>0</v>
-      </c>
-      <c r="B36" s="29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B36" s="55">
+        <v>1</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>163</v>
@@ -21027,10 +21027,10 @@
     </row>
     <row r="37" spans="1:3" ht="17">
       <c r="A37" s="135">
-        <v>1</v>
-      </c>
-      <c r="B37" s="29">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B37" s="55">
+        <v>1</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>163</v>
@@ -21038,10 +21038,10 @@
     </row>
     <row r="38" spans="1:3" ht="17">
       <c r="A38" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>163</v>
@@ -21052,7 +21052,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>163</v>
@@ -21063,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>163</v>
@@ -21071,10 +21071,10 @@
     </row>
     <row r="41" spans="1:3" ht="17">
       <c r="A41" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" s="55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>163</v>
@@ -21084,110 +21084,110 @@
       <c r="A42" s="135">
         <v>1</v>
       </c>
-      <c r="B42" s="55">
-        <v>6</v>
+      <c r="B42" s="17">
+        <v>1</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17">
       <c r="A43" s="135">
-        <v>0</v>
-      </c>
-      <c r="B43" s="55">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B43" s="17">
+        <v>1</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17">
       <c r="A44" s="135">
-        <v>0</v>
-      </c>
-      <c r="B44" s="55">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B44" s="17">
+        <v>1</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17">
       <c r="A45" s="135">
         <v>1</v>
       </c>
-      <c r="B45" s="55">
-        <v>6</v>
+      <c r="B45" s="17">
+        <v>1</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17">
       <c r="A46" s="135">
         <v>1</v>
       </c>
-      <c r="B46" s="55">
-        <v>6</v>
+      <c r="B46" s="17">
+        <v>1</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17">
       <c r="A47" s="135">
         <v>1</v>
       </c>
-      <c r="B47" s="55">
-        <v>6</v>
+      <c r="B47" s="17">
+        <v>1</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17">
       <c r="A48" s="135">
         <v>1</v>
       </c>
-      <c r="B48" s="55">
-        <v>6</v>
+      <c r="B48" s="17">
+        <v>1</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17">
       <c r="A49" s="135">
-        <v>0</v>
-      </c>
-      <c r="B49" s="55">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B49" s="17">
+        <v>1</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17">
       <c r="A50" s="135">
         <v>1</v>
       </c>
-      <c r="B50" s="55">
-        <v>6</v>
+      <c r="B50" s="17">
+        <v>1</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17">
       <c r="A51" s="135">
-        <v>1</v>
-      </c>
-      <c r="B51" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B51" s="17">
+        <v>1</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17">
@@ -21214,7 +21214,7 @@
     </row>
     <row r="54" spans="1:3" ht="17">
       <c r="A54" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" s="55">
         <v>1</v>
@@ -21225,7 +21225,7 @@
     </row>
     <row r="55" spans="1:3" ht="17">
       <c r="A55" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" s="55">
         <v>1</v>
@@ -21258,7 +21258,7 @@
     </row>
     <row r="58" spans="1:3" ht="17">
       <c r="A58" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" s="55">
         <v>1</v>
@@ -21305,7 +21305,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>162</v>
@@ -21313,10 +21313,10 @@
     </row>
     <row r="63" spans="1:3" ht="17">
       <c r="A63" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>162</v>
@@ -21324,10 +21324,10 @@
     </row>
     <row r="64" spans="1:3" ht="17">
       <c r="A64" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>162</v>
@@ -21338,7 +21338,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>162</v>
@@ -21346,10 +21346,10 @@
     </row>
     <row r="66" spans="1:3" ht="17">
       <c r="A66" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>162</v>
@@ -21357,10 +21357,10 @@
     </row>
     <row r="67" spans="1:3" ht="17">
       <c r="A67" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>162</v>
@@ -21371,7 +21371,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>162</v>
@@ -21379,10 +21379,10 @@
     </row>
     <row r="69" spans="1:3" ht="17">
       <c r="A69" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>162</v>
@@ -21393,7 +21393,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>162</v>
@@ -21404,7 +21404,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>162</v>
@@ -21414,118 +21414,118 @@
       <c r="A72" s="135">
         <v>1</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="55">
         <v>1</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17">
       <c r="A73" s="135">
-        <v>0</v>
-      </c>
-      <c r="B73" s="17">
+        <v>1</v>
+      </c>
+      <c r="B73" s="55">
         <v>1</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17">
       <c r="A74" s="135">
-        <v>0</v>
-      </c>
-      <c r="B74" s="17">
+        <v>1</v>
+      </c>
+      <c r="B74" s="55">
         <v>1</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17">
       <c r="A75" s="135">
-        <v>1</v>
-      </c>
-      <c r="B75" s="17">
+        <v>0</v>
+      </c>
+      <c r="B75" s="55">
         <v>1</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17">
       <c r="A76" s="135">
-        <v>0</v>
-      </c>
-      <c r="B76" s="17">
+        <v>1</v>
+      </c>
+      <c r="B76" s="55">
         <v>1</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17">
       <c r="A77" s="135">
-        <v>0</v>
-      </c>
-      <c r="B77" s="17">
+        <v>1</v>
+      </c>
+      <c r="B77" s="55">
         <v>1</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17">
       <c r="A78" s="135">
         <v>1</v>
       </c>
-      <c r="B78" s="17">
+      <c r="B78" s="55">
         <v>1</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17">
       <c r="A79" s="135">
-        <v>0</v>
-      </c>
-      <c r="B79" s="17">
+        <v>1</v>
+      </c>
+      <c r="B79" s="55">
         <v>1</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17">
       <c r="A80" s="135">
-        <v>0</v>
-      </c>
-      <c r="B80" s="17">
+        <v>1</v>
+      </c>
+      <c r="B80" s="55">
         <v>1</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17">
       <c r="A81" s="135">
         <v>1</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="55">
         <v>1</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17">
       <c r="A82" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>162</v>
@@ -21533,10 +21533,10 @@
     </row>
     <row r="83" spans="1:3" ht="17">
       <c r="A83" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>162</v>
@@ -21547,7 +21547,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>162</v>
@@ -21555,10 +21555,10 @@
     </row>
     <row r="85" spans="1:3" ht="17">
       <c r="A85" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B85" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>162</v>
@@ -21569,7 +21569,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>162</v>
@@ -21577,10 +21577,10 @@
     </row>
     <row r="87" spans="1:3" ht="17">
       <c r="A87" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>162</v>
@@ -21588,10 +21588,10 @@
     </row>
     <row r="88" spans="1:3" ht="17">
       <c r="A88" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>162</v>
@@ -21602,7 +21602,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>162</v>
@@ -21610,10 +21610,10 @@
     </row>
     <row r="90" spans="1:3" ht="17">
       <c r="A90" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>162</v>
@@ -21621,10 +21621,10 @@
     </row>
     <row r="91" spans="1:3" ht="17">
       <c r="A91" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>162</v>
@@ -21632,10 +21632,10 @@
     </row>
     <row r="92" spans="1:3" ht="17">
       <c r="A92" s="135">
-        <v>1</v>
-      </c>
-      <c r="B92" s="17">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B92" s="55">
+        <v>1</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>163</v>
@@ -21645,8 +21645,8 @@
       <c r="A93" s="135">
         <v>0</v>
       </c>
-      <c r="B93" s="17">
-        <v>3</v>
+      <c r="B93" s="55">
+        <v>1</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>163</v>
@@ -21654,10 +21654,10 @@
     </row>
     <row r="94" spans="1:3" ht="17">
       <c r="A94" s="135">
-        <v>0</v>
-      </c>
-      <c r="B94" s="29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B94" s="55">
+        <v>1</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>163</v>
@@ -21665,10 +21665,10 @@
     </row>
     <row r="95" spans="1:3" ht="17">
       <c r="A95" s="135">
-        <v>0</v>
-      </c>
-      <c r="B95" s="29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B95" s="55">
+        <v>1</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>163</v>
@@ -21676,10 +21676,10 @@
     </row>
     <row r="96" spans="1:3" ht="17">
       <c r="A96" s="135">
-        <v>0</v>
-      </c>
-      <c r="B96" s="29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B96" s="55">
+        <v>1</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>163</v>
@@ -21687,10 +21687,10 @@
     </row>
     <row r="97" spans="1:3" ht="17">
       <c r="A97" s="135">
-        <v>0</v>
-      </c>
-      <c r="B97" s="29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B97" s="55">
+        <v>1</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>163</v>
@@ -21698,10 +21698,10 @@
     </row>
     <row r="98" spans="1:3" ht="17">
       <c r="A98" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" s="55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>163</v>
@@ -21709,10 +21709,10 @@
     </row>
     <row r="99" spans="1:3" ht="17">
       <c r="A99" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" s="55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>163</v>
@@ -21723,7 +21723,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>163</v>
@@ -21734,7 +21734,7 @@
         <v>1</v>
       </c>
       <c r="B101" s="55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>163</v>
@@ -21745,7 +21745,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>163</v>
@@ -21755,115 +21755,115 @@
       <c r="A103" s="135">
         <v>1</v>
       </c>
-      <c r="B103" s="55">
-        <v>6</v>
+      <c r="B103" s="17">
+        <v>1</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17">
       <c r="A104" s="135">
         <v>1</v>
       </c>
-      <c r="B104" s="55">
-        <v>6</v>
+      <c r="B104" s="17">
+        <v>1</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17">
       <c r="A105" s="135">
-        <v>0</v>
-      </c>
-      <c r="B105" s="55">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B105" s="17">
+        <v>1</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17">
       <c r="A106" s="135">
-        <v>0</v>
-      </c>
-      <c r="B106" s="55">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B106" s="17">
+        <v>1</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17">
       <c r="A107" s="135">
-        <v>1</v>
-      </c>
-      <c r="B107" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B107" s="17">
+        <v>1</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17">
       <c r="A108" s="135">
         <v>1</v>
       </c>
-      <c r="B108" s="55">
-        <v>6</v>
+      <c r="B108" s="17">
+        <v>1</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17">
       <c r="A109" s="135">
         <v>1</v>
       </c>
-      <c r="B109" s="55">
-        <v>6</v>
+      <c r="B109" s="17">
+        <v>1</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17">
       <c r="A110" s="135">
-        <v>0</v>
-      </c>
-      <c r="B110" s="55">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B110" s="17">
+        <v>1</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17">
       <c r="A111" s="135">
-        <v>0</v>
-      </c>
-      <c r="B111" s="55">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B111" s="17">
+        <v>1</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17">
       <c r="A112" s="135">
         <v>1</v>
       </c>
-      <c r="B112" s="55">
+      <c r="B112" s="17">
         <v>1</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="17">
       <c r="A113" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" s="55">
         <v>1</v>
@@ -21874,7 +21874,7 @@
     </row>
     <row r="114" spans="1:4" ht="17">
       <c r="A114" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B114" s="55">
         <v>1</v>
@@ -21929,7 +21929,7 @@
     </row>
     <row r="119" spans="1:4" ht="17">
       <c r="A119" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B119" s="55">
         <v>1</v>
@@ -21940,7 +21940,7 @@
     </row>
     <row r="120" spans="1:4" ht="17">
       <c r="A120" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B120" s="55">
         <v>1</v>
@@ -21964,11 +21964,11 @@
       <c r="A122" s="135">
         <v>1</v>
       </c>
-      <c r="B122" s="17">
-        <v>3</v>
+      <c r="B122" s="55">
+        <v>1</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D122" s="134"/>
     </row>
@@ -21977,7 +21977,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>162</v>
@@ -21985,10 +21985,10 @@
     </row>
     <row r="124" spans="1:4" ht="17">
       <c r="A124" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>162</v>
@@ -21996,10 +21996,10 @@
     </row>
     <row r="125" spans="1:4" ht="17">
       <c r="A125" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B125" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C125" s="18" t="s">
         <v>162</v>
@@ -22010,7 +22010,7 @@
         <v>0</v>
       </c>
       <c r="B126" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>162</v>
@@ -22021,7 +22021,7 @@
         <v>0</v>
       </c>
       <c r="B127" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>162</v>
@@ -22032,7 +22032,7 @@
         <v>1</v>
       </c>
       <c r="B128" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C128" s="18" t="s">
         <v>162</v>
@@ -22043,7 +22043,7 @@
         <v>1</v>
       </c>
       <c r="B129" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C129" s="18" t="s">
         <v>162</v>
@@ -22054,7 +22054,7 @@
         <v>1</v>
       </c>
       <c r="B130" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130" s="18" t="s">
         <v>162</v>
@@ -22062,10 +22062,10 @@
     </row>
     <row r="131" spans="1:3" ht="17">
       <c r="A131" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B131" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C131" s="18" t="s">
         <v>162</v>
@@ -22073,7 +22073,7 @@
     </row>
     <row r="132" spans="1:3" ht="17">
       <c r="A132" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" s="17">
         <v>1</v>
@@ -22084,120 +22084,120 @@
     </row>
     <row r="133" spans="1:3" ht="17">
       <c r="A133" s="135">
-        <v>1</v>
-      </c>
-      <c r="B133" s="17">
+        <v>0</v>
+      </c>
+      <c r="B133" s="55">
         <v>1</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="17">
       <c r="A134" s="135">
-        <v>1</v>
-      </c>
-      <c r="B134" s="17">
+        <v>0</v>
+      </c>
+      <c r="B134" s="55">
         <v>1</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="17">
       <c r="A135" s="135">
-        <v>1</v>
-      </c>
-      <c r="B135" s="17">
+        <v>0</v>
+      </c>
+      <c r="B135" s="55">
         <v>1</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="17">
       <c r="A136" s="135">
-        <v>1</v>
-      </c>
-      <c r="B136" s="17">
+        <v>0</v>
+      </c>
+      <c r="B136" s="55">
         <v>1</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="17">
       <c r="A137" s="135">
-        <v>1</v>
-      </c>
-      <c r="B137" s="17">
+        <v>0</v>
+      </c>
+      <c r="B137" s="55">
         <v>1</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="17">
       <c r="A138" s="135">
         <v>1</v>
       </c>
-      <c r="B138" s="17">
+      <c r="B138" s="55">
         <v>1</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="17">
       <c r="A139" s="135">
         <v>1</v>
       </c>
-      <c r="B139" s="17">
+      <c r="B139" s="55">
         <v>1</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="17">
       <c r="A140" s="135">
         <v>1</v>
       </c>
-      <c r="B140" s="17">
+      <c r="B140" s="55">
         <v>1</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="17">
       <c r="A141" s="135">
         <v>0</v>
       </c>
-      <c r="B141" s="17">
+      <c r="B141" s="55">
         <v>1</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="17">
       <c r="A142" s="135">
-        <v>1</v>
-      </c>
-      <c r="B142" s="17">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B142" s="55">
+        <v>1</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="17">
       <c r="A143" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B143" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C143" s="18" t="s">
         <v>162</v>
@@ -22205,10 +22205,10 @@
     </row>
     <row r="144" spans="1:3" ht="17">
       <c r="A144" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B144" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C144" s="18" t="s">
         <v>162</v>
@@ -22216,10 +22216,10 @@
     </row>
     <row r="145" spans="1:3" ht="17">
       <c r="A145" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B145" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C145" s="18" t="s">
         <v>162</v>
@@ -22227,10 +22227,10 @@
     </row>
     <row r="146" spans="1:3" ht="17">
       <c r="A146" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B146" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C146" s="18" t="s">
         <v>162</v>
@@ -22238,10 +22238,10 @@
     </row>
     <row r="147" spans="1:3" ht="17">
       <c r="A147" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B147" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C147" s="18" t="s">
         <v>162</v>
@@ -22252,7 +22252,7 @@
         <v>1</v>
       </c>
       <c r="B148" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C148" s="18" t="s">
         <v>162</v>
@@ -22260,10 +22260,10 @@
     </row>
     <row r="149" spans="1:3" ht="17">
       <c r="A149" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B149" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C149" s="18" t="s">
         <v>162</v>
@@ -22271,10 +22271,10 @@
     </row>
     <row r="150" spans="1:3" ht="17">
       <c r="A150" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B150" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C150" s="18" t="s">
         <v>162</v>
@@ -22282,10 +22282,10 @@
     </row>
     <row r="151" spans="1:3" ht="17">
       <c r="A151" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B151" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C151" s="18" t="s">
         <v>162</v>
@@ -22293,18 +22293,18 @@
     </row>
     <row r="152" spans="1:3" ht="17">
       <c r="A152" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B152" s="17">
         <v>3</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="17">
       <c r="A153" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153" s="17">
         <v>3</v>
@@ -22315,9 +22315,9 @@
     </row>
     <row r="154" spans="1:3" ht="17">
       <c r="A154" s="135">
-        <v>1</v>
-      </c>
-      <c r="B154" s="29">
+        <v>0</v>
+      </c>
+      <c r="B154" s="17">
         <v>3</v>
       </c>
       <c r="C154" s="18" t="s">
@@ -22326,7 +22326,7 @@
     </row>
     <row r="155" spans="1:3" ht="17">
       <c r="A155" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B155" s="29">
         <v>3</v>
@@ -22348,7 +22348,7 @@
     </row>
     <row r="157" spans="1:3" ht="17">
       <c r="A157" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" s="29">
         <v>3</v>
@@ -22361,7 +22361,7 @@
       <c r="A158" s="135">
         <v>1</v>
       </c>
-      <c r="B158" s="55">
+      <c r="B158" s="29">
         <v>3</v>
       </c>
       <c r="C158" s="18" t="s">
@@ -22370,7 +22370,7 @@
     </row>
     <row r="159" spans="1:3" ht="17">
       <c r="A159" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B159" s="55">
         <v>3</v>
@@ -22381,7 +22381,7 @@
     </row>
     <row r="160" spans="1:3" ht="17">
       <c r="A160" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B160" s="55">
         <v>3</v>
@@ -22392,7 +22392,7 @@
     </row>
     <row r="161" spans="1:3" ht="17">
       <c r="A161" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B161" s="55">
         <v>3</v>
@@ -22403,10 +22403,10 @@
     </row>
     <row r="162" spans="1:3" ht="17">
       <c r="A162" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162" s="55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C162" s="18" t="s">
         <v>163</v>
@@ -22414,120 +22414,120 @@
     </row>
     <row r="163" spans="1:3" ht="17">
       <c r="A163" s="135">
-        <v>0</v>
-      </c>
-      <c r="B163" s="55">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B163" s="17">
+        <v>3</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="17">
       <c r="A164" s="135">
-        <v>1</v>
-      </c>
-      <c r="B164" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B164" s="17">
+        <v>3</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="17">
       <c r="A165" s="135">
-        <v>1</v>
-      </c>
-      <c r="B165" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B165" s="17">
+        <v>3</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="17">
       <c r="A166" s="135">
-        <v>1</v>
-      </c>
-      <c r="B166" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B166" s="17">
+        <v>3</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="17">
       <c r="A167" s="135">
-        <v>1</v>
-      </c>
-      <c r="B167" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B167" s="17">
+        <v>3</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="17">
       <c r="A168" s="135">
-        <v>1</v>
-      </c>
-      <c r="B168" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B168" s="17">
+        <v>3</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="17">
       <c r="A169" s="135">
         <v>1</v>
       </c>
-      <c r="B169" s="55">
-        <v>6</v>
+      <c r="B169" s="17">
+        <v>3</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="17">
       <c r="A170" s="135">
-        <v>1</v>
-      </c>
-      <c r="B170" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B170" s="17">
+        <v>3</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="17">
       <c r="A171" s="135">
         <v>1</v>
       </c>
-      <c r="B171" s="55">
-        <v>6</v>
+      <c r="B171" s="17">
+        <v>3</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="17">
       <c r="A172" s="135">
         <v>1</v>
       </c>
-      <c r="B172" s="55">
-        <v>1</v>
+      <c r="B172" s="17">
+        <v>3</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="17">
       <c r="A173" s="135">
         <v>1</v>
       </c>
-      <c r="B173" s="55">
-        <v>1</v>
+      <c r="B173" s="17">
+        <v>3</v>
       </c>
       <c r="C173" s="18" t="s">
         <v>163</v>
@@ -22535,10 +22535,10 @@
     </row>
     <row r="174" spans="1:3" ht="17">
       <c r="A174" s="135">
-        <v>1</v>
-      </c>
-      <c r="B174" s="55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B174" s="17">
+        <v>3</v>
       </c>
       <c r="C174" s="18" t="s">
         <v>163</v>
@@ -22546,10 +22546,10 @@
     </row>
     <row r="175" spans="1:3" ht="17">
       <c r="A175" s="135">
-        <v>1</v>
-      </c>
-      <c r="B175" s="55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B175" s="29">
+        <v>3</v>
       </c>
       <c r="C175" s="18" t="s">
         <v>163</v>
@@ -22557,10 +22557,10 @@
     </row>
     <row r="176" spans="1:3" ht="17">
       <c r="A176" s="135">
-        <v>1</v>
-      </c>
-      <c r="B176" s="55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B176" s="29">
+        <v>3</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>163</v>
@@ -22568,10 +22568,10 @@
     </row>
     <row r="177" spans="1:3" ht="17">
       <c r="A177" s="135">
-        <v>1</v>
-      </c>
-      <c r="B177" s="55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B177" s="29">
+        <v>3</v>
       </c>
       <c r="C177" s="18" t="s">
         <v>163</v>
@@ -22579,10 +22579,10 @@
     </row>
     <row r="178" spans="1:3" ht="17">
       <c r="A178" s="135">
-        <v>1</v>
-      </c>
-      <c r="B178" s="55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B178" s="29">
+        <v>3</v>
       </c>
       <c r="C178" s="18" t="s">
         <v>163</v>
@@ -22593,7 +22593,7 @@
         <v>1</v>
       </c>
       <c r="B179" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C179" s="18" t="s">
         <v>163</v>
@@ -22601,10 +22601,10 @@
     </row>
     <row r="180" spans="1:3" ht="17">
       <c r="A180" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B180" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C180" s="18" t="s">
         <v>163</v>
@@ -22612,10 +22612,10 @@
     </row>
     <row r="181" spans="1:3" ht="17">
       <c r="A181" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B181" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C181" s="18" t="s">
         <v>163</v>
@@ -22625,11 +22625,11 @@
       <c r="A182" s="135">
         <v>1</v>
       </c>
-      <c r="B182" s="17">
+      <c r="B182" s="55">
         <v>3</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="17">
@@ -22645,7 +22645,7 @@
     </row>
     <row r="184" spans="1:3" ht="17">
       <c r="A184" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" s="17">
         <v>3</v>
@@ -22656,7 +22656,7 @@
     </row>
     <row r="185" spans="1:3" ht="17">
       <c r="A185" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B185" s="17">
         <v>3</v>
@@ -22678,7 +22678,7 @@
     </row>
     <row r="187" spans="1:3" ht="17">
       <c r="A187" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B187" s="17">
         <v>3</v>
@@ -22689,7 +22689,7 @@
     </row>
     <row r="188" spans="1:3" ht="17">
       <c r="A188" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B188" s="17">
         <v>3</v>
@@ -22736,7 +22736,7 @@
         <v>1</v>
       </c>
       <c r="B192" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C192" s="18" t="s">
         <v>162</v>
@@ -22747,109 +22747,109 @@
         <v>1</v>
       </c>
       <c r="B193" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="17">
       <c r="A194" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B194" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="17">
       <c r="A195" s="135">
-        <v>0</v>
-      </c>
-      <c r="B195" s="17">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B195" s="29">
+        <v>3</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="17">
       <c r="A196" s="135">
         <v>1</v>
       </c>
-      <c r="B196" s="17">
-        <v>1</v>
+      <c r="B196" s="29">
+        <v>3</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="17">
       <c r="A197" s="135">
-        <v>1</v>
-      </c>
-      <c r="B197" s="17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B197" s="29">
+        <v>3</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="17">
       <c r="A198" s="135">
         <v>1</v>
       </c>
-      <c r="B198" s="17">
-        <v>1</v>
+      <c r="B198" s="29">
+        <v>3</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="17">
       <c r="A199" s="135">
         <v>1</v>
       </c>
-      <c r="B199" s="17">
-        <v>1</v>
+      <c r="B199" s="55">
+        <v>3</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="17">
       <c r="A200" s="135">
         <v>1</v>
       </c>
-      <c r="B200" s="17">
-        <v>1</v>
+      <c r="B200" s="55">
+        <v>3</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="17">
       <c r="A201" s="135">
         <v>1</v>
       </c>
-      <c r="B201" s="17">
-        <v>1</v>
+      <c r="B201" s="55">
+        <v>3</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="17">
       <c r="A202" s="135">
         <v>1</v>
       </c>
-      <c r="B202" s="17">
-        <v>6</v>
+      <c r="B202" s="55">
+        <v>3</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="17">
@@ -22857,7 +22857,7 @@
         <v>1</v>
       </c>
       <c r="B203" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C203" s="18" t="s">
         <v>162</v>
@@ -22868,7 +22868,7 @@
         <v>1</v>
       </c>
       <c r="B204" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C204" s="18" t="s">
         <v>162</v>
@@ -22876,10 +22876,10 @@
     </row>
     <row r="205" spans="1:3" ht="17">
       <c r="A205" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B205" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C205" s="18" t="s">
         <v>162</v>
@@ -22887,10 +22887,10 @@
     </row>
     <row r="206" spans="1:3" ht="17">
       <c r="A206" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B206" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C206" s="18" t="s">
         <v>162</v>
@@ -22901,7 +22901,7 @@
         <v>1</v>
       </c>
       <c r="B207" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C207" s="18" t="s">
         <v>162</v>
@@ -22912,7 +22912,7 @@
         <v>1</v>
       </c>
       <c r="B208" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C208" s="18" t="s">
         <v>162</v>
@@ -22920,10 +22920,10 @@
     </row>
     <row r="209" spans="1:3" ht="17">
       <c r="A209" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B209" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C209" s="18" t="s">
         <v>162</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="B210" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C210" s="18" t="s">
         <v>162</v>
@@ -22945,7 +22945,7 @@
         <v>1</v>
       </c>
       <c r="B211" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C211" s="18" t="s">
         <v>162</v>
@@ -22959,7 +22959,7 @@
         <v>3</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="17">
@@ -22977,7 +22977,7 @@
       <c r="A214" s="135">
         <v>1</v>
       </c>
-      <c r="B214" s="29">
+      <c r="B214" s="17">
         <v>3</v>
       </c>
       <c r="C214" s="18" t="s">
@@ -22986,7 +22986,7 @@
     </row>
     <row r="215" spans="1:3" ht="17">
       <c r="A215" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B215" s="29">
         <v>3</v>
@@ -22997,7 +22997,7 @@
     </row>
     <row r="216" spans="1:3" ht="17">
       <c r="A216" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B216" s="29">
         <v>3</v>
@@ -23021,7 +23021,7 @@
       <c r="A218" s="135">
         <v>1</v>
       </c>
-      <c r="B218" s="55">
+      <c r="B218" s="29">
         <v>3</v>
       </c>
       <c r="C218" s="18" t="s">
@@ -23066,7 +23066,7 @@
         <v>1</v>
       </c>
       <c r="B222" s="55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C222" s="18" t="s">
         <v>163</v>
@@ -23074,109 +23074,109 @@
     </row>
     <row r="223" spans="1:3" ht="17">
       <c r="A223" s="135">
-        <v>1</v>
-      </c>
-      <c r="B223" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B223" s="17">
+        <v>3</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="17">
       <c r="A224" s="135">
-        <v>1</v>
-      </c>
-      <c r="B224" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B224" s="17">
+        <v>3</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="17">
       <c r="A225" s="135">
-        <v>0</v>
-      </c>
-      <c r="B225" s="55">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B225" s="17">
+        <v>3</v>
       </c>
       <c r="C225" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="17">
       <c r="A226" s="135">
-        <v>1</v>
-      </c>
-      <c r="B226" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B226" s="17">
+        <v>3</v>
       </c>
       <c r="C226" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="17">
       <c r="A227" s="135">
         <v>1</v>
       </c>
-      <c r="B227" s="55">
-        <v>6</v>
+      <c r="B227" s="17">
+        <v>3</v>
       </c>
       <c r="C227" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="17">
       <c r="A228" s="135">
-        <v>1</v>
-      </c>
-      <c r="B228" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B228" s="17">
+        <v>3</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="17">
       <c r="A229" s="135">
-        <v>0</v>
-      </c>
-      <c r="B229" s="55">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B229" s="17">
+        <v>3</v>
       </c>
       <c r="C229" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="17">
       <c r="A230" s="135">
-        <v>1</v>
-      </c>
-      <c r="B230" s="55">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B230" s="17">
+        <v>3</v>
       </c>
       <c r="C230" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="17">
       <c r="A231" s="135">
         <v>1</v>
       </c>
-      <c r="B231" s="55">
-        <v>6</v>
+      <c r="B231" s="17">
+        <v>3</v>
       </c>
       <c r="C231" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="17">
       <c r="A232" s="135">
-        <v>1</v>
-      </c>
-      <c r="B232" s="55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B232" s="17">
+        <v>3</v>
       </c>
       <c r="C232" s="18" t="s">
         <v>163</v>
@@ -23184,10 +23184,10 @@
     </row>
     <row r="233" spans="1:3" ht="17">
       <c r="A233" s="135">
-        <v>1</v>
-      </c>
-      <c r="B233" s="55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B233" s="17">
+        <v>3</v>
       </c>
       <c r="C233" s="18" t="s">
         <v>163</v>
@@ -23195,10 +23195,10 @@
     </row>
     <row r="234" spans="1:3" ht="17">
       <c r="A234" s="135">
-        <v>1</v>
-      </c>
-      <c r="B234" s="55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B234" s="29">
+        <v>3</v>
       </c>
       <c r="C234" s="18" t="s">
         <v>163</v>
@@ -23206,10 +23206,10 @@
     </row>
     <row r="235" spans="1:3" ht="17">
       <c r="A235" s="135">
-        <v>0</v>
-      </c>
-      <c r="B235" s="55">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B235" s="29">
+        <v>3</v>
       </c>
       <c r="C235" s="18" t="s">
         <v>163</v>
@@ -23217,10 +23217,10 @@
     </row>
     <row r="236" spans="1:3" ht="17">
       <c r="A236" s="135">
-        <v>1</v>
-      </c>
-      <c r="B236" s="55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B236" s="29">
+        <v>3</v>
       </c>
       <c r="C236" s="18" t="s">
         <v>163</v>
@@ -23230,8 +23230,8 @@
       <c r="A237" s="135">
         <v>1</v>
       </c>
-      <c r="B237" s="55">
-        <v>1</v>
+      <c r="B237" s="29">
+        <v>3</v>
       </c>
       <c r="C237" s="18" t="s">
         <v>163</v>
@@ -23239,10 +23239,10 @@
     </row>
     <row r="238" spans="1:3" ht="17">
       <c r="A238" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B238" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C238" s="18" t="s">
         <v>163</v>
@@ -23253,7 +23253,7 @@
         <v>1</v>
       </c>
       <c r="B239" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C239" s="18" t="s">
         <v>163</v>
@@ -23261,10 +23261,10 @@
     </row>
     <row r="240" spans="1:3" ht="17">
       <c r="A240" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B240" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C240" s="18" t="s">
         <v>163</v>
@@ -23275,7 +23275,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C241" s="18" t="s">
         <v>163</v>
@@ -23305,7 +23305,7 @@
     </row>
     <row r="244" spans="1:3" ht="17">
       <c r="A244" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B244" s="17">
         <v>3</v>
@@ -23327,7 +23327,7 @@
     </row>
     <row r="246" spans="1:3" ht="17">
       <c r="A246" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B246" s="17">
         <v>3</v>
@@ -23371,7 +23371,7 @@
     </row>
     <row r="250" spans="1:3" ht="17">
       <c r="A250" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B250" s="17">
         <v>3</v>
@@ -23385,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="B251" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C251" s="18" t="s">
         <v>162</v>
@@ -23396,109 +23396,109 @@
         <v>0</v>
       </c>
       <c r="B252" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C252" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="17">
       <c r="A253" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B253" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C253" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="17">
       <c r="A254" s="135">
-        <v>1</v>
-      </c>
-      <c r="B254" s="17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B254" s="29">
+        <v>3</v>
       </c>
       <c r="C254" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="17">
       <c r="A255" s="135">
         <v>0</v>
       </c>
-      <c r="B255" s="17">
-        <v>1</v>
+      <c r="B255" s="29">
+        <v>3</v>
       </c>
       <c r="C255" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="17">
       <c r="A256" s="135">
         <v>0</v>
       </c>
-      <c r="B256" s="17">
-        <v>1</v>
+      <c r="B256" s="29">
+        <v>3</v>
       </c>
       <c r="C256" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="17">
       <c r="A257" s="135">
         <v>0</v>
       </c>
-      <c r="B257" s="17">
-        <v>1</v>
+      <c r="B257" s="29">
+        <v>3</v>
       </c>
       <c r="C257" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="17">
       <c r="A258" s="135">
         <v>1</v>
       </c>
-      <c r="B258" s="17">
-        <v>1</v>
+      <c r="B258" s="55">
+        <v>3</v>
       </c>
       <c r="C258" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="17">
       <c r="A259" s="135">
-        <v>1</v>
-      </c>
-      <c r="B259" s="17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B259" s="55">
+        <v>3</v>
       </c>
       <c r="C259" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="17">
       <c r="A260" s="135">
-        <v>1</v>
-      </c>
-      <c r="B260" s="17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B260" s="55">
+        <v>3</v>
       </c>
       <c r="C260" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="17">
       <c r="A261" s="135">
         <v>0</v>
       </c>
-      <c r="B261" s="17">
-        <v>6</v>
+      <c r="B261" s="55">
+        <v>3</v>
       </c>
       <c r="C261" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="17">
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C262" s="18" t="s">
         <v>162</v>
@@ -23514,10 +23514,10 @@
     </row>
     <row r="263" spans="1:3" ht="17">
       <c r="A263" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B263" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C263" s="18" t="s">
         <v>162</v>
@@ -23525,10 +23525,10 @@
     </row>
     <row r="264" spans="1:3" ht="17">
       <c r="A264" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B264" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C264" s="18" t="s">
         <v>162</v>
@@ -23536,10 +23536,10 @@
     </row>
     <row r="265" spans="1:3" ht="17">
       <c r="A265" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B265" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C265" s="18" t="s">
         <v>162</v>
@@ -23550,7 +23550,7 @@
         <v>1</v>
       </c>
       <c r="B266" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C266" s="18" t="s">
         <v>162</v>
@@ -23561,7 +23561,7 @@
         <v>1</v>
       </c>
       <c r="B267" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C267" s="18" t="s">
         <v>162</v>
@@ -23572,7 +23572,7 @@
         <v>1</v>
       </c>
       <c r="B268" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C268" s="18" t="s">
         <v>162</v>
@@ -23580,10 +23580,10 @@
     </row>
     <row r="269" spans="1:3" ht="17">
       <c r="A269" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B269" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C269" s="18" t="s">
         <v>162</v>
@@ -23594,7 +23594,7 @@
         <v>1</v>
       </c>
       <c r="B270" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C270" s="18" t="s">
         <v>162</v>
@@ -23602,13 +23602,13 @@
     </row>
     <row r="271" spans="1:3" ht="17">
       <c r="A271" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B271" s="17">
         <v>3</v>
       </c>
       <c r="C271" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="17">
@@ -23624,9 +23624,9 @@
     </row>
     <row r="273" spans="1:3" ht="17">
       <c r="A273" s="135">
-        <v>0</v>
-      </c>
-      <c r="B273" s="29">
+        <v>1</v>
+      </c>
+      <c r="B273" s="17">
         <v>3</v>
       </c>
       <c r="C273" s="18" t="s">
@@ -23635,7 +23635,7 @@
     </row>
     <row r="274" spans="1:3" ht="17">
       <c r="A274" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B274" s="29">
         <v>3</v>
@@ -23668,9 +23668,9 @@
     </row>
     <row r="277" spans="1:3" ht="17">
       <c r="A277" s="135">
-        <v>0</v>
-      </c>
-      <c r="B277" s="55">
+        <v>1</v>
+      </c>
+      <c r="B277" s="29">
         <v>3</v>
       </c>
       <c r="C277" s="18" t="s">
@@ -23690,7 +23690,7 @@
     </row>
     <row r="279" spans="1:3" ht="17">
       <c r="A279" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B279" s="55">
         <v>3</v>
@@ -23712,10 +23712,10 @@
     </row>
     <row r="281" spans="1:3" ht="17">
       <c r="A281" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B281" s="55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C281" s="18" t="s">
         <v>163</v>
@@ -23723,120 +23723,120 @@
     </row>
     <row r="282" spans="1:3" ht="17">
       <c r="A282" s="135">
-        <v>0</v>
-      </c>
-      <c r="B282" s="55">
+        <v>1</v>
+      </c>
+      <c r="B282" s="17">
         <v>6</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="17">
       <c r="A283" s="135">
         <v>0</v>
       </c>
-      <c r="B283" s="55">
+      <c r="B283" s="17">
         <v>6</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="17">
       <c r="A284" s="135">
-        <v>1</v>
-      </c>
-      <c r="B284" s="55">
+        <v>0</v>
+      </c>
+      <c r="B284" s="17">
         <v>6</v>
       </c>
       <c r="C284" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="17">
       <c r="A285" s="135">
         <v>1</v>
       </c>
-      <c r="B285" s="55">
+      <c r="B285" s="17">
         <v>6</v>
       </c>
       <c r="C285" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="17">
       <c r="A286" s="135">
         <v>1</v>
       </c>
-      <c r="B286" s="55">
+      <c r="B286" s="17">
         <v>6</v>
       </c>
       <c r="C286" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="17">
       <c r="A287" s="135">
         <v>1</v>
       </c>
-      <c r="B287" s="55">
+      <c r="B287" s="17">
         <v>6</v>
       </c>
       <c r="C287" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="17">
       <c r="A288" s="135">
         <v>1</v>
       </c>
-      <c r="B288" s="55">
+      <c r="B288" s="17">
         <v>6</v>
       </c>
       <c r="C288" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="17">
       <c r="A289" s="135">
         <v>0</v>
       </c>
-      <c r="B289" s="55">
+      <c r="B289" s="17">
         <v>6</v>
       </c>
       <c r="C289" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="17">
       <c r="A290" s="135">
         <v>1</v>
       </c>
-      <c r="B290" s="55">
+      <c r="B290" s="17">
         <v>6</v>
       </c>
       <c r="C290" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="17">
       <c r="A291" s="135">
-        <v>0</v>
-      </c>
-      <c r="B291" s="55">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B291" s="17">
+        <v>6</v>
       </c>
       <c r="C291" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="17">
       <c r="A292" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B292" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C292" s="18" t="s">
         <v>163</v>
@@ -23844,10 +23844,10 @@
     </row>
     <row r="293" spans="1:3" ht="17">
       <c r="A293" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B293" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C293" s="18" t="s">
         <v>163</v>
@@ -23855,10 +23855,10 @@
     </row>
     <row r="294" spans="1:3" ht="17">
       <c r="A294" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B294" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C294" s="18" t="s">
         <v>163</v>
@@ -23869,7 +23869,7 @@
         <v>1</v>
       </c>
       <c r="B295" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C295" s="18" t="s">
         <v>163</v>
@@ -23880,7 +23880,7 @@
         <v>1</v>
       </c>
       <c r="B296" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C296" s="18" t="s">
         <v>163</v>
@@ -23888,10 +23888,10 @@
     </row>
     <row r="297" spans="1:3" ht="17">
       <c r="A297" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B297" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C297" s="18" t="s">
         <v>163</v>
@@ -23902,7 +23902,7 @@
         <v>1</v>
       </c>
       <c r="B298" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C298" s="18" t="s">
         <v>163</v>
@@ -23910,10 +23910,10 @@
     </row>
     <row r="299" spans="1:3" ht="17">
       <c r="A299" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B299" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C299" s="18" t="s">
         <v>163</v>
@@ -23924,7 +23924,7 @@
         <v>1</v>
       </c>
       <c r="B300" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C300" s="18" t="s">
         <v>163</v>
@@ -23935,7 +23935,7 @@
         <v>1</v>
       </c>
       <c r="B301" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C301" s="18" t="s">
         <v>163</v>
@@ -23943,10 +23943,10 @@
     </row>
     <row r="302" spans="1:3" ht="17">
       <c r="A302" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B302" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C302" s="18" t="s">
         <v>162</v>
@@ -23954,10 +23954,10 @@
     </row>
     <row r="303" spans="1:3" ht="17">
       <c r="A303" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B303" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C303" s="18" t="s">
         <v>162</v>
@@ -23965,10 +23965,10 @@
     </row>
     <row r="304" spans="1:3" ht="17">
       <c r="A304" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B304" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C304" s="18" t="s">
         <v>162</v>
@@ -23979,7 +23979,7 @@
         <v>0</v>
       </c>
       <c r="B305" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C305" s="18" t="s">
         <v>162</v>
@@ -23990,7 +23990,7 @@
         <v>0</v>
       </c>
       <c r="B306" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C306" s="18" t="s">
         <v>162</v>
@@ -23998,10 +23998,10 @@
     </row>
     <row r="307" spans="1:3" ht="17">
       <c r="A307" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B307" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C307" s="18" t="s">
         <v>162</v>
@@ -24012,7 +24012,7 @@
         <v>1</v>
       </c>
       <c r="B308" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C308" s="18" t="s">
         <v>162</v>
@@ -24020,10 +24020,10 @@
     </row>
     <row r="309" spans="1:3" ht="17">
       <c r="A309" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B309" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C309" s="18" t="s">
         <v>162</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="B310" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C310" s="18" t="s">
         <v>162</v>
@@ -24045,7 +24045,7 @@
         <v>0</v>
       </c>
       <c r="B311" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C311" s="18" t="s">
         <v>162</v>
@@ -24055,115 +24055,115 @@
       <c r="A312" s="135">
         <v>1</v>
       </c>
-      <c r="B312" s="17">
-        <v>1</v>
+      <c r="B312" s="55">
+        <v>6</v>
       </c>
       <c r="C312" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="17">
       <c r="A313" s="135">
         <v>1</v>
       </c>
-      <c r="B313" s="17">
-        <v>1</v>
+      <c r="B313" s="55">
+        <v>6</v>
       </c>
       <c r="C313" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="17">
       <c r="A314" s="135">
         <v>1</v>
       </c>
-      <c r="B314" s="17">
-        <v>1</v>
+      <c r="B314" s="55">
+        <v>6</v>
       </c>
       <c r="C314" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="17">
       <c r="A315" s="135">
-        <v>1</v>
-      </c>
-      <c r="B315" s="17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B315" s="55">
+        <v>6</v>
       </c>
       <c r="C315" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="17">
       <c r="A316" s="135">
         <v>0</v>
       </c>
-      <c r="B316" s="17">
-        <v>1</v>
+      <c r="B316" s="55">
+        <v>6</v>
       </c>
       <c r="C316" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="17">
       <c r="A317" s="135">
         <v>1</v>
       </c>
-      <c r="B317" s="17">
-        <v>1</v>
+      <c r="B317" s="55">
+        <v>6</v>
       </c>
       <c r="C317" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="17">
       <c r="A318" s="135">
         <v>1</v>
       </c>
-      <c r="B318" s="17">
-        <v>1</v>
+      <c r="B318" s="55">
+        <v>6</v>
       </c>
       <c r="C318" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="17">
       <c r="A319" s="135">
         <v>1</v>
       </c>
-      <c r="B319" s="17">
-        <v>1</v>
+      <c r="B319" s="55">
+        <v>6</v>
       </c>
       <c r="C319" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="17">
       <c r="A320" s="135">
-        <v>1</v>
-      </c>
-      <c r="B320" s="17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B320" s="55">
+        <v>6</v>
       </c>
       <c r="C320" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="17">
       <c r="A321" s="135">
-        <v>1</v>
-      </c>
-      <c r="B321" s="17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B321" s="55">
+        <v>6</v>
       </c>
       <c r="C321" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="17">
       <c r="A322" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B322" s="17">
         <v>6</v>
@@ -24185,7 +24185,7 @@
     </row>
     <row r="324" spans="1:3" ht="17">
       <c r="A324" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B324" s="17">
         <v>6</v>
@@ -24196,7 +24196,7 @@
     </row>
     <row r="325" spans="1:3" ht="17">
       <c r="A325" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B325" s="17">
         <v>6</v>
@@ -24207,7 +24207,7 @@
     </row>
     <row r="326" spans="1:3" ht="17">
       <c r="A326" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B326" s="17">
         <v>6</v>
@@ -24218,7 +24218,7 @@
     </row>
     <row r="327" spans="1:3" ht="17">
       <c r="A327" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B327" s="17">
         <v>6</v>
@@ -24251,7 +24251,7 @@
     </row>
     <row r="330" spans="1:3" ht="17">
       <c r="A330" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B330" s="17">
         <v>6</v>
@@ -24262,7 +24262,7 @@
     </row>
     <row r="331" spans="1:3" ht="17">
       <c r="A331" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B331" s="17">
         <v>6</v>
@@ -24273,10 +24273,10 @@
     </row>
     <row r="332" spans="1:3" ht="17">
       <c r="A332" s="135">
-        <v>0</v>
-      </c>
-      <c r="B332" s="17">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B332" s="55">
+        <v>6</v>
       </c>
       <c r="C332" s="18" t="s">
         <v>163</v>
@@ -24286,8 +24286,8 @@
       <c r="A333" s="135">
         <v>0</v>
       </c>
-      <c r="B333" s="17">
-        <v>3</v>
+      <c r="B333" s="55">
+        <v>6</v>
       </c>
       <c r="C333" s="18" t="s">
         <v>163</v>
@@ -24295,10 +24295,10 @@
     </row>
     <row r="334" spans="1:3" ht="17">
       <c r="A334" s="135">
-        <v>0</v>
-      </c>
-      <c r="B334" s="29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B334" s="55">
+        <v>6</v>
       </c>
       <c r="C334" s="18" t="s">
         <v>163</v>
@@ -24306,10 +24306,10 @@
     </row>
     <row r="335" spans="1:3" ht="17">
       <c r="A335" s="135">
-        <v>0</v>
-      </c>
-      <c r="B335" s="29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B335" s="55">
+        <v>6</v>
       </c>
       <c r="C335" s="18" t="s">
         <v>163</v>
@@ -24317,10 +24317,10 @@
     </row>
     <row r="336" spans="1:3" ht="17">
       <c r="A336" s="135">
-        <v>0</v>
-      </c>
-      <c r="B336" s="29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B336" s="55">
+        <v>6</v>
       </c>
       <c r="C336" s="18" t="s">
         <v>163</v>
@@ -24328,10 +24328,10 @@
     </row>
     <row r="337" spans="1:3" ht="17">
       <c r="A337" s="135">
-        <v>0</v>
-      </c>
-      <c r="B337" s="29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B337" s="55">
+        <v>6</v>
       </c>
       <c r="C337" s="18" t="s">
         <v>163</v>
@@ -24342,7 +24342,7 @@
         <v>1</v>
       </c>
       <c r="B338" s="55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C338" s="18" t="s">
         <v>163</v>
@@ -24350,10 +24350,10 @@
     </row>
     <row r="339" spans="1:3" ht="17">
       <c r="A339" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B339" s="55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C339" s="18" t="s">
         <v>163</v>
@@ -24361,10 +24361,10 @@
     </row>
     <row r="340" spans="1:3" ht="17">
       <c r="A340" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B340" s="55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C340" s="18" t="s">
         <v>163</v>
@@ -24372,10 +24372,10 @@
     </row>
     <row r="341" spans="1:3" ht="17">
       <c r="A341" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B341" s="55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C341" s="18" t="s">
         <v>163</v>
@@ -24383,112 +24383,112 @@
     </row>
     <row r="342" spans="1:3" ht="17">
       <c r="A342" s="135">
-        <v>0</v>
-      </c>
-      <c r="B342" s="55">
+        <v>1</v>
+      </c>
+      <c r="B342" s="17">
         <v>6</v>
       </c>
       <c r="C342" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="17">
       <c r="A343" s="135">
-        <v>0</v>
-      </c>
-      <c r="B343" s="55">
+        <v>1</v>
+      </c>
+      <c r="B343" s="17">
         <v>6</v>
       </c>
       <c r="C343" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="17">
       <c r="A344" s="135">
-        <v>0</v>
-      </c>
-      <c r="B344" s="55">
+        <v>1</v>
+      </c>
+      <c r="B344" s="17">
         <v>6</v>
       </c>
       <c r="C344" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="17">
       <c r="A345" s="135">
         <v>0</v>
       </c>
-      <c r="B345" s="55">
+      <c r="B345" s="17">
         <v>6</v>
       </c>
       <c r="C345" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="17">
       <c r="A346" s="135">
-        <v>0</v>
-      </c>
-      <c r="B346" s="55">
+        <v>1</v>
+      </c>
+      <c r="B346" s="17">
         <v>6</v>
       </c>
       <c r="C346" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="17">
       <c r="A347" s="135">
-        <v>0</v>
-      </c>
-      <c r="B347" s="55">
+        <v>1</v>
+      </c>
+      <c r="B347" s="17">
         <v>6</v>
       </c>
       <c r="C347" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="17">
       <c r="A348" s="135">
         <v>1</v>
       </c>
-      <c r="B348" s="55">
+      <c r="B348" s="17">
         <v>6</v>
       </c>
       <c r="C348" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="17">
       <c r="A349" s="135">
-        <v>1</v>
-      </c>
-      <c r="B349" s="55">
+        <v>0</v>
+      </c>
+      <c r="B349" s="17">
         <v>6</v>
       </c>
       <c r="C349" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="17">
       <c r="A350" s="135">
-        <v>0</v>
-      </c>
-      <c r="B350" s="55">
+        <v>1</v>
+      </c>
+      <c r="B350" s="17">
         <v>6</v>
       </c>
       <c r="C350" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="17">
       <c r="A351" s="135">
-        <v>0</v>
-      </c>
-      <c r="B351" s="55">
+        <v>1</v>
+      </c>
+      <c r="B351" s="17">
         <v>6</v>
       </c>
       <c r="C351" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="17">
@@ -24496,7 +24496,7 @@
         <v>1</v>
       </c>
       <c r="B352" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C352" s="18" t="s">
         <v>163</v>
@@ -24507,7 +24507,7 @@
         <v>1</v>
       </c>
       <c r="B353" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C353" s="18" t="s">
         <v>163</v>
@@ -24518,7 +24518,7 @@
         <v>1</v>
       </c>
       <c r="B354" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C354" s="18" t="s">
         <v>163</v>
@@ -24526,10 +24526,10 @@
     </row>
     <row r="355" spans="1:3" ht="17">
       <c r="A355" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B355" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C355" s="18" t="s">
         <v>163</v>
@@ -24537,10 +24537,10 @@
     </row>
     <row r="356" spans="1:3" ht="17">
       <c r="A356" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B356" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C356" s="18" t="s">
         <v>163</v>
@@ -24551,7 +24551,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C357" s="18" t="s">
         <v>163</v>
@@ -24562,7 +24562,7 @@
         <v>1</v>
       </c>
       <c r="B358" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C358" s="18" t="s">
         <v>163</v>
@@ -24570,10 +24570,10 @@
     </row>
     <row r="359" spans="1:3" ht="17">
       <c r="A359" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B359" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C359" s="18" t="s">
         <v>163</v>
@@ -24584,7 +24584,7 @@
         <v>1</v>
       </c>
       <c r="B360" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C360" s="18" t="s">
         <v>163</v>
@@ -24595,7 +24595,7 @@
         <v>1</v>
       </c>
       <c r="B361" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C361" s="18" t="s">
         <v>163</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="B362" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C362" s="18" t="s">
         <v>162</v>
@@ -24614,10 +24614,10 @@
     </row>
     <row r="363" spans="1:3" ht="17">
       <c r="A363" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B363" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C363" s="18" t="s">
         <v>162</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="B364" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C364" s="18" t="s">
         <v>162</v>
@@ -24636,10 +24636,10 @@
     </row>
     <row r="365" spans="1:3" ht="17">
       <c r="A365" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B365" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C365" s="18" t="s">
         <v>162</v>
@@ -24650,7 +24650,7 @@
         <v>1</v>
       </c>
       <c r="B366" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C366" s="18" t="s">
         <v>162</v>
@@ -24661,7 +24661,7 @@
         <v>1</v>
       </c>
       <c r="B367" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C367" s="18" t="s">
         <v>162</v>
@@ -24672,7 +24672,7 @@
         <v>1</v>
       </c>
       <c r="B368" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C368" s="18" t="s">
         <v>162</v>
@@ -24683,7 +24683,7 @@
         <v>1</v>
       </c>
       <c r="B369" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C369" s="18" t="s">
         <v>162</v>
@@ -24691,10 +24691,10 @@
     </row>
     <row r="370" spans="1:3" ht="17">
       <c r="A370" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B370" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C370" s="18" t="s">
         <v>162</v>
@@ -24705,7 +24705,7 @@
         <v>1</v>
       </c>
       <c r="B371" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C371" s="18" t="s">
         <v>162</v>
@@ -24715,110 +24715,110 @@
       <c r="A372" s="135">
         <v>0</v>
       </c>
-      <c r="B372" s="17">
-        <v>1</v>
+      <c r="B372" s="55">
+        <v>6</v>
       </c>
       <c r="C372" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="17">
       <c r="A373" s="135">
         <v>0</v>
       </c>
-      <c r="B373" s="17">
-        <v>1</v>
+      <c r="B373" s="55">
+        <v>6</v>
       </c>
       <c r="C373" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="17">
       <c r="A374" s="135">
         <v>0</v>
       </c>
-      <c r="B374" s="17">
-        <v>1</v>
+      <c r="B374" s="55">
+        <v>6</v>
       </c>
       <c r="C374" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="17">
       <c r="A375" s="135">
-        <v>0</v>
-      </c>
-      <c r="B375" s="17">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B375" s="55">
+        <v>6</v>
       </c>
       <c r="C375" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="17">
       <c r="A376" s="135">
-        <v>0</v>
-      </c>
-      <c r="B376" s="17">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B376" s="55">
+        <v>6</v>
       </c>
       <c r="C376" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="17">
       <c r="A377" s="135">
         <v>1</v>
       </c>
-      <c r="B377" s="17">
-        <v>1</v>
+      <c r="B377" s="55">
+        <v>6</v>
       </c>
       <c r="C377" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="17">
       <c r="A378" s="135">
         <v>1</v>
       </c>
-      <c r="B378" s="17">
-        <v>1</v>
+      <c r="B378" s="55">
+        <v>6</v>
       </c>
       <c r="C378" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="17">
       <c r="A379" s="135">
         <v>1</v>
       </c>
-      <c r="B379" s="17">
-        <v>1</v>
+      <c r="B379" s="55">
+        <v>6</v>
       </c>
       <c r="C379" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="17">
       <c r="A380" s="135">
         <v>0</v>
       </c>
-      <c r="B380" s="17">
-        <v>1</v>
+      <c r="B380" s="55">
+        <v>6</v>
       </c>
       <c r="C380" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="17">
       <c r="A381" s="135">
-        <v>0</v>
-      </c>
-      <c r="B381" s="17">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B381" s="55">
+        <v>6</v>
       </c>
       <c r="C381" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="17">
@@ -24834,7 +24834,7 @@
     </row>
     <row r="383" spans="1:3" ht="17">
       <c r="A383" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B383" s="17">
         <v>6</v>
@@ -24867,7 +24867,7 @@
     </row>
     <row r="386" spans="1:3" ht="17">
       <c r="A386" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B386" s="17">
         <v>6</v>
@@ -24878,7 +24878,7 @@
     </row>
     <row r="387" spans="1:3" ht="17">
       <c r="A387" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B387" s="17">
         <v>6</v>
@@ -24911,7 +24911,7 @@
     </row>
     <row r="390" spans="1:3" ht="17">
       <c r="A390" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B390" s="17">
         <v>6</v>
@@ -24922,7 +24922,7 @@
     </row>
     <row r="391" spans="1:3" ht="17">
       <c r="A391" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B391" s="17">
         <v>6</v>
@@ -24935,8 +24935,8 @@
       <c r="A392" s="135">
         <v>0</v>
       </c>
-      <c r="B392" s="17">
-        <v>3</v>
+      <c r="B392" s="55">
+        <v>6</v>
       </c>
       <c r="C392" s="18" t="s">
         <v>163</v>
@@ -24944,10 +24944,10 @@
     </row>
     <row r="393" spans="1:3" ht="17">
       <c r="A393" s="135">
-        <v>1</v>
-      </c>
-      <c r="B393" s="17">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B393" s="55">
+        <v>6</v>
       </c>
       <c r="C393" s="18" t="s">
         <v>163</v>
@@ -24957,8 +24957,8 @@
       <c r="A394" s="135">
         <v>0</v>
       </c>
-      <c r="B394" s="29">
-        <v>3</v>
+      <c r="B394" s="55">
+        <v>6</v>
       </c>
       <c r="C394" s="18" t="s">
         <v>163</v>
@@ -24968,8 +24968,8 @@
       <c r="A395" s="135">
         <v>0</v>
       </c>
-      <c r="B395" s="29">
-        <v>3</v>
+      <c r="B395" s="55">
+        <v>6</v>
       </c>
       <c r="C395" s="18" t="s">
         <v>163</v>
@@ -24977,10 +24977,10 @@
     </row>
     <row r="396" spans="1:3" ht="17">
       <c r="A396" s="135">
-        <v>1</v>
-      </c>
-      <c r="B396" s="29">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B396" s="55">
+        <v>6</v>
       </c>
       <c r="C396" s="18" t="s">
         <v>163</v>
@@ -24988,10 +24988,10 @@
     </row>
     <row r="397" spans="1:3" ht="17">
       <c r="A397" s="135">
-        <v>1</v>
-      </c>
-      <c r="B397" s="29">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B397" s="55">
+        <v>6</v>
       </c>
       <c r="C397" s="18" t="s">
         <v>163</v>
@@ -25002,7 +25002,7 @@
         <v>1</v>
       </c>
       <c r="B398" s="55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C398" s="18" t="s">
         <v>163</v>
@@ -25013,7 +25013,7 @@
         <v>1</v>
       </c>
       <c r="B399" s="55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C399" s="18" t="s">
         <v>163</v>
@@ -25021,10 +25021,10 @@
     </row>
     <row r="400" spans="1:3" ht="17">
       <c r="A400" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B400" s="55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C400" s="18" t="s">
         <v>163</v>
@@ -25032,10 +25032,10 @@
     </row>
     <row r="401" spans="1:3" ht="17">
       <c r="A401" s="135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B401" s="55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C401" s="18" t="s">
         <v>163</v>
@@ -25045,110 +25045,110 @@
       <c r="A402" s="135">
         <v>0</v>
       </c>
-      <c r="B402" s="55">
+      <c r="B402" s="17">
         <v>6</v>
       </c>
       <c r="C402" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="17">
       <c r="A403" s="135">
         <v>1</v>
       </c>
-      <c r="B403" s="55">
+      <c r="B403" s="17">
         <v>6</v>
       </c>
       <c r="C403" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="17">
       <c r="A404" s="135">
         <v>0</v>
       </c>
-      <c r="B404" s="55">
+      <c r="B404" s="17">
         <v>6</v>
       </c>
       <c r="C404" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="17">
       <c r="A405" s="135">
         <v>0</v>
       </c>
-      <c r="B405" s="55">
+      <c r="B405" s="17">
         <v>6</v>
       </c>
       <c r="C405" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="17">
       <c r="A406" s="135">
         <v>1</v>
       </c>
-      <c r="B406" s="55">
+      <c r="B406" s="17">
         <v>6</v>
       </c>
       <c r="C406" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="17">
       <c r="A407" s="135">
         <v>1</v>
       </c>
-      <c r="B407" s="55">
+      <c r="B407" s="17">
         <v>6</v>
       </c>
       <c r="C407" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="17">
       <c r="A408" s="135">
         <v>1</v>
       </c>
-      <c r="B408" s="55">
+      <c r="B408" s="17">
         <v>6</v>
       </c>
       <c r="C408" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="17">
       <c r="A409" s="135">
         <v>1</v>
       </c>
-      <c r="B409" s="55">
+      <c r="B409" s="17">
         <v>6</v>
       </c>
       <c r="C409" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="17">
       <c r="A410" s="135">
         <v>1</v>
       </c>
-      <c r="B410" s="55">
+      <c r="B410" s="17">
         <v>6</v>
       </c>
       <c r="C410" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="17">
       <c r="A411" s="135">
         <v>1</v>
       </c>
-      <c r="B411" s="55">
+      <c r="B411" s="17">
         <v>6</v>
       </c>
       <c r="C411" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="17">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="B412" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C412" s="18" t="s">
         <v>163</v>
@@ -25164,10 +25164,10 @@
     </row>
     <row r="413" spans="1:3" ht="17">
       <c r="A413" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B413" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C413" s="18" t="s">
         <v>163</v>
@@ -25178,7 +25178,7 @@
         <v>0</v>
       </c>
       <c r="B414" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C414" s="18" t="s">
         <v>163</v>
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
       <c r="B415" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C415" s="18" t="s">
         <v>163</v>
@@ -25197,10 +25197,10 @@
     </row>
     <row r="416" spans="1:3" ht="17">
       <c r="A416" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B416" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C416" s="18" t="s">
         <v>163</v>
@@ -25211,7 +25211,7 @@
         <v>1</v>
       </c>
       <c r="B417" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C417" s="18" t="s">
         <v>163</v>
@@ -25222,7 +25222,7 @@
         <v>1</v>
       </c>
       <c r="B418" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C418" s="18" t="s">
         <v>163</v>
@@ -25233,7 +25233,7 @@
         <v>1</v>
       </c>
       <c r="B419" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C419" s="18" t="s">
         <v>163</v>
@@ -25241,10 +25241,10 @@
     </row>
     <row r="420" spans="1:3" ht="17">
       <c r="A420" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B420" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C420" s="18" t="s">
         <v>163</v>
@@ -25252,16 +25252,19 @@
     </row>
     <row r="421" spans="1:3" ht="17">
       <c r="A421" s="135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B421" s="55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C421" s="18" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C421">
+    <sortCondition ref="B2:B421"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26497,7 +26500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA25473-67C1-E946-8337-7945D986AAFA}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B61"/>
     </sheetView>
   </sheetViews>
@@ -28283,7 +28286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED87EFD-923D-A448-BED2-2F380D3E9B27}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E61" activeCellId="1" sqref="B2:B61 E2:F61"/>
     </sheetView>
   </sheetViews>
@@ -31794,7 +31797,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="D2:E61 B2:B61"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCA0550-7150-3947-ABD8-BDA959A40AE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6E0551-8058-CF4A-A3F9-854F1C9C7338}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25640" windowHeight="19480" xr2:uid="{262774B7-AB6E-2E48-BB18-D4F78B06E237}"/>
   </bookViews>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6E0551-8058-CF4A-A3F9-854F1C9C7338}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2E784F-81C9-E546-9643-5B89AAF9B960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25640" windowHeight="19480" xr2:uid="{262774B7-AB6E-2E48-BB18-D4F78B06E237}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="19480" xr2:uid="{262774B7-AB6E-2E48-BB18-D4F78B06E237}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="7" r:id="rId1"/>
@@ -13376,8 +13376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92B7623-75A6-7B46-8147-ADF8D32CC273}">
   <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14306,6 +14306,40 @@
       <c r="AO8" s="13">
         <f>AVERAGE(AO2:AO7)</f>
         <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="H9">
+        <f>SUM(H2:H7)</f>
+        <v>51</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="I9:AO9" si="3">SUM(M2:M7)</f>
+        <v>29</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="20">

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2E784F-81C9-E546-9643-5B89AAF9B960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392AFFB8-95EE-AA47-B560-47FB7CDEB893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="19480" xr2:uid="{262774B7-AB6E-2E48-BB18-D4F78B06E237}"/>
+    <workbookView xWindow="12700" yWindow="460" windowWidth="20900" windowHeight="18440" activeTab="6" xr2:uid="{262774B7-AB6E-2E48-BB18-D4F78B06E237}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="858">
   <si>
     <t>Class</t>
   </si>
@@ -2577,6 +2577,42 @@
   </si>
   <si>
     <t>SL</t>
+  </si>
+  <si>
+    <t>SimplyDo</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>beecount</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>C3Y</t>
+  </si>
+  <si>
+    <t>C6Y</t>
+  </si>
+  <si>
+    <t>C1Y</t>
+  </si>
+  <si>
+    <t>C3N</t>
+  </si>
+  <si>
+    <t>C6N</t>
+  </si>
+  <si>
+    <t>C1N</t>
   </si>
 </sst>
 </file>
@@ -2810,7 +2846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2961,13 +2997,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3338,6 +3497,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -12720,16 +12900,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>433539</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>119780</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66805</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13376,8 +13556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92B7623-75A6-7B46-8147-ADF8D32CC273}">
   <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="H9" zoomScale="73" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13385,8 +13565,8 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.5" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" customWidth="1"/>
     <col min="16" max="16" width="5" customWidth="1"/>
     <col min="21" max="21" width="3.1640625" customWidth="1"/>
@@ -13526,7 +13706,10 @@
         <f>SUM(H2,M2,R2,W2,AC2,AH2,AM2)</f>
         <v>34</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="140">
+        <f>C2/B2</f>
+        <v>0.48571428571428571</v>
+      </c>
       <c r="E2" s="94" t="s">
         <v>61</v>
       </c>
@@ -13653,7 +13836,10 @@
         <f t="shared" ref="C3:C7" si="1">SUM(H3,M3,R3,W3,AC3,AH3,AM3)</f>
         <v>44</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="140">
+        <f t="shared" ref="D3:D7" si="2">C3/B3</f>
+        <v>0.62857142857142856</v>
+      </c>
       <c r="E3" s="94" t="s">
         <v>62</v>
       </c>
@@ -13762,7 +13948,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3" s="126">
-        <f t="shared" ref="AQ3:AQ7" si="2">AVERAGE(O3,J3,T3,Y3,AE3,AJ3,AO3)</f>
+        <f t="shared" ref="AQ3:AQ7" si="3">AVERAGE(O3,J3,T3,Y3,AE3,AJ3,AO3)</f>
         <v>0.37142857142857139</v>
       </c>
     </row>
@@ -13778,7 +13964,10 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="140">
+        <f t="shared" si="2"/>
+        <v>0.6428571428571429</v>
+      </c>
       <c r="E4" s="94" t="s">
         <v>63</v>
       </c>
@@ -13887,7 +14076,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ4" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35714285714285715</v>
       </c>
     </row>
@@ -13903,7 +14092,10 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="140">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
       <c r="E5" s="94" t="s">
         <v>64</v>
       </c>
@@ -14012,7 +14204,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ5" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -14028,7 +14220,10 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="140">
+        <f t="shared" si="2"/>
+        <v>0.65714285714285714</v>
+      </c>
       <c r="E6" s="94" t="s">
         <v>65</v>
       </c>
@@ -14137,7 +14332,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ6" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35285714285714281</v>
       </c>
     </row>
@@ -14153,7 +14348,10 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="140">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
       <c r="E7" s="108" t="s">
         <v>150</v>
       </c>
@@ -14262,7 +14460,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ7" s="126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
     </row>
@@ -14308,41 +14506,194 @@
         <v>0.51666666666666672</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" ht="17" thickBot="1">
       <c r="H9">
         <f>SUM(H2:H7)</f>
         <v>51</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="I9:AO9" si="3">SUM(M2:M7)</f>
+        <f t="shared" ref="M9:AM9" si="4">SUM(M2:M7)</f>
         <v>29</v>
       </c>
       <c r="R9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="W9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:43" ht="17" thickBot="1">
+      <c r="E10" s="150" t="s">
+        <v>846</v>
+      </c>
+      <c r="F10" s="151" t="s">
+        <v>847</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>848</v>
+      </c>
+      <c r="H10" s="151" t="s">
+        <v>301</v>
+      </c>
+      <c r="I10" s="151" t="s">
+        <v>849</v>
+      </c>
+      <c r="J10" s="151" t="s">
+        <v>850</v>
+      </c>
+      <c r="K10" s="152" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="D11" s="147" t="s">
+        <v>852</v>
+      </c>
+      <c r="E11" s="141">
+        <f>AH2/AG2</f>
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="142">
+        <f>H2/G2</f>
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="142">
+        <f>W2/V2</f>
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="142">
+        <f>AC2/AB2</f>
+        <v>0.7</v>
+      </c>
+      <c r="I11" s="142">
+        <f>AM2/AL2</f>
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="142">
+        <f>M2/L2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="143">
+        <f>R2/Q2</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="D12" s="148" t="s">
+        <v>853</v>
+      </c>
+      <c r="E12" s="141">
+        <f t="shared" ref="E12:E16" si="5">AH3/AG3</f>
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="142">
+        <f t="shared" ref="F12:F16" si="6">H3/G3</f>
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="142">
+        <f t="shared" ref="G12:G16" si="7">W3/V3</f>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="142">
+        <f t="shared" ref="H12:H16" si="8">AC3/AB3</f>
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="142">
+        <f t="shared" ref="I12:I16" si="9">AM3/AL3</f>
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="142">
+        <f t="shared" ref="J12:J16" si="10">M3/L3</f>
+        <v>0.4</v>
+      </c>
+      <c r="K12" s="143">
+        <f t="shared" ref="K12:K16" si="11">R3/Q3</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="D13" s="148" t="s">
+        <v>854</v>
+      </c>
+      <c r="E13" s="141">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="142">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="142">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="H13" s="142">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="I13" s="142">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="J13" s="142">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="143">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+    </row>
     <row r="14" spans="1:43" ht="20">
+      <c r="D14" s="148" t="s">
+        <v>855</v>
+      </c>
+      <c r="E14" s="141">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="142">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="142">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="142">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="I14" s="142">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="142">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="K14" s="143">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -14350,13 +14701,75 @@
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:43" ht="20">
+      <c r="D15" s="148" t="s">
+        <v>856</v>
+      </c>
+      <c r="E15" s="141">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="142">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="142">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="H15" s="142">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="142">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="J15" s="142">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="K15" s="143">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:43" ht="20">
+    <row r="16" spans="1:43" ht="21" thickBot="1">
+      <c r="D16" s="149" t="s">
+        <v>857</v>
+      </c>
+      <c r="E16" s="144">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="145">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="145">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="145">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="145">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="145">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="146">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -19057,8 +19470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DF656F-E440-3849-A7D1-EB3ABF5C3BC7}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="2" sqref="B1:B1048576 D1:D1048576 E1:E1048576"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -20284,8 +20697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA25473-67C1-E946-8337-7945D986AAFA}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22070,8 +22483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED87EFD-923D-A448-BED2-2F380D3E9B27}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E61" activeCellId="1" sqref="B2:B61 E2:F61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -23748,7 +24161,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="E1:E1048576 F1:F1048576"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -25580,8 +25993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCEABB6-84B5-9647-BF7E-254515195959}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -26928,7 +27341,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -28400,8 +28813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6E8E7-8423-D041-A462-B781626C8BB7}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D61"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
